--- a/collecting_absent/작업자 pay계산.xlsx
+++ b/collecting_absent/작업자 pay계산.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcy37\PycharmProjects\collecting_absent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28714F1A-9ABC-40EF-AC7D-65D72D887F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C6DFA6-F50E-4563-8624-638F79E56470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="936" yWindow="0" windowWidth="29784" windowHeight="13188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="29784" windowHeight="13188" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -110,13 +112,88 @@
   </si>
   <si>
     <t>정혜림</t>
+  </si>
+  <si>
+    <t>9월28일 ~ 12월13일 객체생성작업 수당</t>
+  </si>
+  <si>
+    <t>9월28일 ~ 12월13일 객체생성작업 수당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검수 완료(비율)</t>
+  </si>
+  <si>
+    <t>검수 중</t>
+  </si>
+  <si>
+    <t>5440(0.42)</t>
+  </si>
+  <si>
+    <t>2312(0.17)</t>
+  </si>
+  <si>
+    <t>3202(0.24)</t>
+  </si>
+  <si>
+    <t>1987(0.15)</t>
+  </si>
+  <si>
+    <t>(장)</t>
+  </si>
+  <si>
+    <t>객체생성 진행중</t>
+  </si>
+  <si>
+    <t>객체생성 완료</t>
+  </si>
+  <si>
+    <t>검수 완료</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>합계</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주대 용역비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가수당(김지은 선임)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 정제 사업비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검수 작업자 수당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[DBNum4]General"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +215,140 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="None"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF47C83E"/>
+      <name val="None"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="None"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="None"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -170,17 +371,234 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,15 +899,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -538,7 +959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -564,7 +985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -590,7 +1011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -616,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,7 +1089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -694,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -772,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -824,7 +1245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -850,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -902,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -928,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -954,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -980,7 +1401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1006,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1032,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1058,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1084,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1110,8 +1531,1338 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="3">
+        <f>SUM(E2:E24)</f>
+        <v>43461500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{38F1FBA1-6809-4064-BF0B-D59672EC196B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{38F1FBA1-6809-4064-BF0B-D59672EC196B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5B9403-8678-40D3-BF96-2494B1B89066}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="A1:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1174300</v>
+      </c>
+      <c r="F2">
+        <v>3946</v>
+      </c>
+      <c r="G2">
+        <v>7797</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>983100</v>
+      </c>
+      <c r="F4">
+        <v>3586</v>
+      </c>
+      <c r="G4">
+        <v>6245</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1177400</v>
+      </c>
+      <c r="F7">
+        <v>4515</v>
+      </c>
+      <c r="G7">
+        <v>7259</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>455200</v>
+      </c>
+      <c r="F8">
+        <v>1994</v>
+      </c>
+      <c r="G8">
+        <v>2558</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1300</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1451800</v>
+      </c>
+      <c r="F11">
+        <v>5241</v>
+      </c>
+      <c r="G11">
+        <v>9277</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>399</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1192350</v>
+      </c>
+      <c r="F12">
+        <v>2179</v>
+      </c>
+      <c r="G12">
+        <v>5770</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>399</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>508700</v>
+      </c>
+      <c r="F13">
+        <v>1776</v>
+      </c>
+      <c r="G13">
+        <v>3311</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>798</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1430500</v>
+      </c>
+      <c r="F14">
+        <v>3435</v>
+      </c>
+      <c r="G14">
+        <v>10870</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>800</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>835000</v>
+      </c>
+      <c r="F15">
+        <v>3023</v>
+      </c>
+      <c r="G15">
+        <v>5327</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>185</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>501600</v>
+      </c>
+      <c r="F16">
+        <v>996</v>
+      </c>
+      <c r="G16">
+        <v>2348</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>352</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>913800</v>
+      </c>
+      <c r="F17">
+        <v>1660</v>
+      </c>
+      <c r="G17">
+        <v>4432</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>652500</v>
+      </c>
+      <c r="F18">
+        <v>2073</v>
+      </c>
+      <c r="G18">
+        <v>4452</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>360</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>695550</v>
+      </c>
+      <c r="F20">
+        <v>1543</v>
+      </c>
+      <c r="G20">
+        <v>3094</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>349</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>577950</v>
+      </c>
+      <c r="F21">
+        <v>1120</v>
+      </c>
+      <c r="G21">
+        <v>2733</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>1099</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>972600</v>
+      </c>
+      <c r="F22">
+        <v>3813</v>
+      </c>
+      <c r="G22">
+        <v>5913</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="3">
+        <f>SUM(E2:E24)</f>
+        <v>13522350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{372F639B-BEEF-405C-A7B2-5511D74E3B7F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{372F639B-BEEF-405C-A7B2-5511D74E3B7F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15113CC-82CE-4DFF-80F5-67FC68636AE7}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="19"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="16">
+        <v>161400000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="21">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="22">
+        <f>Sheet2!C2+Sheet1!C2</f>
+        <v>2691</v>
+      </c>
+      <c r="D3" s="23">
+        <f>Sheet2!E2+Sheet1!E2</f>
+        <v>4494700</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="17">
+        <v>-56983850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="22">
+        <f>Sheet2!C15+Sheet1!C15</f>
+        <v>1345</v>
+      </c>
+      <c r="D4" s="23">
+        <f>Sheet2!E15+Sheet1!E15</f>
+        <v>1925500</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="18">
+        <v>-5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="22">
+        <f>Sheet2!C16+Sheet1!C16</f>
+        <v>185</v>
+      </c>
+      <c r="D5" s="23">
+        <f>Sheet2!E16+Sheet1!E16</f>
+        <v>501600</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="22">
+        <f>Sheet2!C17+Sheet1!C17</f>
+        <v>537</v>
+      </c>
+      <c r="D6" s="23">
+        <f>Sheet2!E17+Sheet1!E17</f>
+        <v>1457250</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="22">
+        <f>Sheet2!C3+Sheet1!C3</f>
+        <v>1487</v>
+      </c>
+      <c r="D7" s="23">
+        <f>Sheet2!E3+Sheet1!E3</f>
+        <v>3116850</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="17">
+        <f>SUM(I2:I5)</f>
+        <v>99416150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="22">
+        <f>Sheet2!C4+Sheet1!C4</f>
+        <v>2158</v>
+      </c>
+      <c r="D8" s="23">
+        <f>Sheet2!E4+Sheet1!E4</f>
+        <v>3536100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22">
+        <f>Sheet2!C5+Sheet1!C5</f>
+        <v>60</v>
+      </c>
+      <c r="D9" s="23">
+        <f>Sheet2!E5+Sheet1!E5</f>
+        <v>114750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="22">
+        <f>Sheet2!C6+Sheet1!C6</f>
+        <v>353</v>
+      </c>
+      <c r="D10" s="23">
+        <f>Sheet2!E6+Sheet1!E6</f>
+        <v>769200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="22">
+        <f>Sheet2!C7+Sheet1!C7</f>
+        <v>3490</v>
+      </c>
+      <c r="D11" s="23">
+        <f>Sheet2!E7+Sheet1!E7</f>
+        <v>5976250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="21">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="22">
+        <f>Sheet2!C18+Sheet1!C18</f>
+        <v>2090</v>
+      </c>
+      <c r="D12" s="23">
+        <f>Sheet2!E18+Sheet1!E18</f>
+        <v>3433250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="21">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="22">
+        <f>Sheet2!C8+Sheet1!C8</f>
+        <v>1879</v>
+      </c>
+      <c r="D13" s="23">
+        <f>Sheet2!E8+Sheet1!E8</f>
+        <v>3144700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="21">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="22">
+        <f>Sheet2!C9+Sheet1!C9</f>
+        <v>1738</v>
+      </c>
+      <c r="D14" s="23">
+        <f>Sheet2!E9+Sheet1!E9</f>
+        <v>3638700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="21">
+        <v>12</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="22">
+        <f>Sheet2!C10+Sheet1!C10</f>
+        <v>1737</v>
+      </c>
+      <c r="D15" s="23">
+        <f>Sheet2!E10+Sheet1!E10</f>
+        <v>3798450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="21">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="22">
+        <f>Sheet2!C12+Sheet1!C12</f>
+        <v>1090</v>
+      </c>
+      <c r="D16" s="23">
+        <f>Sheet2!E12+Sheet1!E12</f>
+        <v>2483850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="21">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22">
+        <f>Sheet2!C11+Sheet1!C11</f>
+        <v>2792</v>
+      </c>
+      <c r="D17" s="23">
+        <f>Sheet2!E11+Sheet1!E11</f>
+        <v>4373300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="21">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="22">
+        <f>Sheet2!C19+Sheet1!C19</f>
+        <v>471</v>
+      </c>
+      <c r="D18" s="23">
+        <f>Sheet2!E19+Sheet1!E19</f>
+        <v>1122300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="21">
+        <v>16</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22">
+        <f>Sheet2!C13+Sheet1!C13</f>
+        <v>1889</v>
+      </c>
+      <c r="D19" s="23">
+        <f>Sheet2!E13+Sheet1!E13</f>
+        <v>3932750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="21">
+        <v>17</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="22">
+        <f>Sheet2!C20+Sheet1!C20</f>
+        <v>545</v>
+      </c>
+      <c r="D20" s="23">
+        <f>Sheet2!E20+Sheet1!E20</f>
+        <v>1039500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="22">
+        <f>Sheet2!C21+Sheet1!C21</f>
+        <v>533</v>
+      </c>
+      <c r="D21" s="23">
+        <f>Sheet2!E21+Sheet1!E21</f>
+        <v>909600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="21">
+        <v>19</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="22">
+        <f>Sheet2!C22+Sheet1!C22</f>
+        <v>2035</v>
+      </c>
+      <c r="D22" s="23">
+        <f>Sheet2!E22+Sheet1!E22</f>
+        <v>3293550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="21">
+        <v>20</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="22">
+        <f>Sheet2!C14+Sheet1!C14</f>
+        <v>1775</v>
+      </c>
+      <c r="D23" s="23">
+        <f>Sheet2!E14+Sheet1!E14</f>
+        <v>3610000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="21">
+        <v>21</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="22">
+        <f>Sheet2!C23+Sheet1!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="23">
+        <f>Sheet2!E23+Sheet1!E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="21">
+        <v>22</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="22">
+        <f>Sheet2!C24+Sheet1!C24</f>
+        <v>192</v>
+      </c>
+      <c r="D25" s="23">
+        <f>Sheet2!E24+Sheet1!E24</f>
+        <v>311700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" thickBot="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27">
+        <f>SUM(C3:C25)</f>
+        <v>31072</v>
+      </c>
+      <c r="D26" s="28">
+        <f>SUM(D3:D25)</f>
+        <v>56983850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="14">
+        <v>900</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="14">
+        <v>1200</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>31408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="14">
+        <v>1665</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="15">
+        <v>12941</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="E37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37">
+        <v>12941</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B4:D25">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5B9FE405-8BA9-4AEC-9C99-79578760B8CC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5B9FE405-8BA9-4AEC-9C99-79578760B8CC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>